--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rgmb-Neo1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="H2">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="I2">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="J2">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N2">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O2">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P2">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q2">
-        <v>25.68436266314968</v>
+        <v>25.689368178537</v>
       </c>
       <c r="R2">
-        <v>25.68436266314968</v>
+        <v>102.757472714148</v>
       </c>
       <c r="S2">
-        <v>0.01150610328442261</v>
+        <v>0.00993361125142218</v>
       </c>
       <c r="T2">
-        <v>0.01150610328442261</v>
+        <v>0.006453131894015562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="H3">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="I3">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="J3">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N3">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P3">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q3">
-        <v>212.7038950345174</v>
+        <v>228.926151682592</v>
       </c>
       <c r="R3">
-        <v>212.7038950345174</v>
+        <v>1373.556910095552</v>
       </c>
       <c r="S3">
-        <v>0.09528727721858203</v>
+        <v>0.0885215774983098</v>
       </c>
       <c r="T3">
-        <v>0.09528727721858203</v>
+        <v>0.08625887413016028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="H4">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="I4">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="J4">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N4">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O4">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P4">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q4">
-        <v>2.311283221239768</v>
+        <v>2.834771912658</v>
       </c>
       <c r="R4">
-        <v>2.311283221239768</v>
+        <v>17.008631475948</v>
       </c>
       <c r="S4">
-        <v>0.001035410682052585</v>
+        <v>0.001096154719380053</v>
       </c>
       <c r="T4">
-        <v>0.001035410682052585</v>
+        <v>0.001068135867415947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="H5">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="I5">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="J5">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N5">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O5">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P5">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q5">
-        <v>4.091636149206883</v>
+        <v>4.5779982324405</v>
       </c>
       <c r="R5">
-        <v>4.091636149206883</v>
+        <v>27.467989394643</v>
       </c>
       <c r="S5">
-        <v>0.001832974746248903</v>
+        <v>0.001770228618886634</v>
       </c>
       <c r="T5">
-        <v>0.001832974746248903</v>
+        <v>0.001724979738652593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="H6">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="I6">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="J6">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N6">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O6">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P6">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q6">
-        <v>29.87771978670628</v>
+        <v>32.00246106279599</v>
       </c>
       <c r="R6">
-        <v>29.87771978670628</v>
+        <v>192.014766376776</v>
       </c>
       <c r="S6">
-        <v>0.01338464708186464</v>
+        <v>0.01237476940177105</v>
       </c>
       <c r="T6">
-        <v>0.01338464708186464</v>
+        <v>0.01205845745617795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="H7">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="I7">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="J7">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N7">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O7">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P7">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q7">
-        <v>170.1344528415402</v>
+        <v>182.0904027688883</v>
       </c>
       <c r="R7">
-        <v>170.1344528415402</v>
+        <v>728.361611075553</v>
       </c>
       <c r="S7">
-        <v>0.07621698121566041</v>
+        <v>0.07041104557924695</v>
       </c>
       <c r="T7">
-        <v>0.07621698121566041</v>
+        <v>0.04574084413192334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H8">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="I8">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="J8">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N8">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O8">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P8">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q8">
-        <v>13.42273482074758</v>
+        <v>14.18285773119733</v>
       </c>
       <c r="R8">
-        <v>13.42273482074758</v>
+        <v>85.097146387184</v>
       </c>
       <c r="S8">
-        <v>0.00601312850283504</v>
+        <v>0.005484253024706555</v>
       </c>
       <c r="T8">
-        <v>0.00601312850283504</v>
+        <v>0.005344069827101152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H9">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="I9">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="J9">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N9">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P9">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q9">
-        <v>111.1597751453934</v>
+        <v>126.3879678822684</v>
       </c>
       <c r="R9">
-        <v>111.1597751453934</v>
+        <v>1137.491710940416</v>
       </c>
       <c r="S9">
-        <v>0.04979745344162816</v>
+        <v>0.04887192752559111</v>
       </c>
       <c r="T9">
-        <v>0.04979745344162816</v>
+        <v>0.07143406552502024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H10">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="I10">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="J10">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N10">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O10">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P10">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q10">
-        <v>1.207884430741807</v>
+        <v>1.565050820176</v>
       </c>
       <c r="R10">
-        <v>1.207884430741807</v>
+        <v>14.085457381584</v>
       </c>
       <c r="S10">
-        <v>0.000541109125347357</v>
+        <v>0.0006051766757477799</v>
       </c>
       <c r="T10">
-        <v>0.000541109125347357</v>
+        <v>0.0008845615980041698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H11">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="I11">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="J11">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N11">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O11">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P11">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q11">
-        <v>2.138302894024539</v>
+        <v>2.527469619849333</v>
       </c>
       <c r="R11">
-        <v>2.138302894024539</v>
+        <v>22.747226578644</v>
       </c>
       <c r="S11">
-        <v>0.0009579188035421149</v>
+        <v>0.0009773265141779328</v>
       </c>
       <c r="T11">
-        <v>0.0009579188035421149</v>
+        <v>0.00142851755164698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H12">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="I12">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="J12">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N12">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O12">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P12">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q12">
-        <v>15.61419744010038</v>
+        <v>17.66825673357866</v>
       </c>
       <c r="R12">
-        <v>15.61419744010038</v>
+        <v>159.014310602208</v>
       </c>
       <c r="S12">
-        <v>0.006994861846695728</v>
+        <v>0.006831993401391933</v>
       </c>
       <c r="T12">
-        <v>0.006994861846695728</v>
+        <v>0.009986040842076127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="H13">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="I13">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="J13">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N13">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O13">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P13">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q13">
-        <v>88.91284063830192</v>
+        <v>100.5303929134873</v>
       </c>
       <c r="R13">
-        <v>88.91284063830192</v>
+        <v>603.182357480924</v>
       </c>
       <c r="S13">
-        <v>0.03983125223362088</v>
+        <v>0.0388732737689379</v>
       </c>
       <c r="T13">
-        <v>0.03983125223362088</v>
+        <v>0.03787963255767895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="H14">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="I14">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="J14">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N14">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O14">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P14">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q14">
-        <v>7.689956501017488</v>
+        <v>7.756422250937333</v>
       </c>
       <c r="R14">
-        <v>7.689956501017488</v>
+        <v>46.538533505624</v>
       </c>
       <c r="S14">
-        <v>0.003444953449453193</v>
+        <v>0.002999267354775417</v>
       </c>
       <c r="T14">
-        <v>0.003444953449453193</v>
+        <v>0.002922602969238899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="H15">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="I15">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="J15">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N15">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P15">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q15">
-        <v>63.6840291450644</v>
+        <v>69.11995205144177</v>
       </c>
       <c r="R15">
-        <v>63.6840291450644</v>
+        <v>622.079568462976</v>
       </c>
       <c r="S15">
-        <v>0.02852922716134209</v>
+        <v>0.02672742780687049</v>
       </c>
       <c r="T15">
-        <v>0.02852922716134209</v>
+        <v>0.03906637053084273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="H16">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="I16">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="J16">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N16">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O16">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P16">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q16">
-        <v>0.6920034445069545</v>
+        <v>0.8559061393359999</v>
       </c>
       <c r="R16">
-        <v>0.6920034445069545</v>
+        <v>7.703155254024</v>
       </c>
       <c r="S16">
-        <v>0.0003100043092405397</v>
+        <v>0.000330963330696972</v>
       </c>
       <c r="T16">
-        <v>0.0003100043092405397</v>
+        <v>0.0004837553468503283</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="H17">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="I17">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="J17">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N17">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O17">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P17">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q17">
-        <v>1.225045153662113</v>
+        <v>1.382240587159333</v>
       </c>
       <c r="R17">
-        <v>1.225045153662113</v>
+        <v>12.440165284434</v>
       </c>
       <c r="S17">
-        <v>0.0005487968010333761</v>
+        <v>0.0005344872849091732</v>
       </c>
       <c r="T17">
-        <v>0.0005487968010333761</v>
+        <v>0.0007812378530087502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="H18">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="I18">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="J18">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N18">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O18">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P18">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q18">
-        <v>8.945457145370547</v>
+        <v>9.662542081498666</v>
       </c>
       <c r="R18">
-        <v>8.945457145370547</v>
+        <v>86.96287873348798</v>
       </c>
       <c r="S18">
-        <v>0.004007393727884221</v>
+        <v>0.003736329211019999</v>
       </c>
       <c r="T18">
-        <v>0.004007393727884221</v>
+        <v>0.005461237139527404</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="H19">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="I19">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="J19">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N19">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O19">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P19">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q19">
-        <v>50.93864149305758</v>
+        <v>54.97877728650234</v>
       </c>
       <c r="R19">
-        <v>50.93864149305758</v>
+        <v>329.872663719014</v>
       </c>
       <c r="S19">
-        <v>0.02281953723649148</v>
+        <v>0.02125929282678591</v>
       </c>
       <c r="T19">
-        <v>0.02281953723649148</v>
+        <v>0.02071588324413852</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="H20">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="I20">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="J20">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N20">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O20">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P20">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q20">
-        <v>9.125714899483985</v>
+        <v>9.384185058656001</v>
       </c>
       <c r="R20">
-        <v>9.125714899483985</v>
+        <v>56.305110351936</v>
       </c>
       <c r="S20">
-        <v>0.004088145754471317</v>
+        <v>0.003628693615048726</v>
       </c>
       <c r="T20">
-        <v>0.004088145754471317</v>
+        <v>0.003535940441226106</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="H21">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="I21">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="J21">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N21">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P21">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q21">
-        <v>75.57419779310723</v>
+        <v>83.62546549316266</v>
       </c>
       <c r="R21">
-        <v>75.57419779310723</v>
+        <v>752.629189438464</v>
       </c>
       <c r="S21">
-        <v>0.03385579532765559</v>
+        <v>0.03233644592405099</v>
       </c>
       <c r="T21">
-        <v>0.03385579532765559</v>
+        <v>0.04726483922238124</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="H22">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="I22">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="J22">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N22">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O22">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P22">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q22">
-        <v>0.8212044038475104</v>
+        <v>1.035526605504</v>
       </c>
       <c r="R22">
-        <v>0.8212044038475104</v>
+        <v>9.319739449536</v>
       </c>
       <c r="S22">
-        <v>0.0003678838681813501</v>
+        <v>0.0004004192967336483</v>
       </c>
       <c r="T22">
-        <v>0.0003678838681813501</v>
+        <v>0.0005852762460694045</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="H23">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="I23">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="J23">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N23">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O23">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P23">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q23">
-        <v>1.453768016741811</v>
+        <v>1.672317602864</v>
       </c>
       <c r="R23">
-        <v>1.453768016741811</v>
+        <v>15.050858425776</v>
       </c>
       <c r="S23">
-        <v>0.0006512602695888822</v>
+        <v>0.0006466547888725559</v>
       </c>
       <c r="T23">
-        <v>0.0006512602695888822</v>
+        <v>0.0009451884322794895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="H24">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="I24">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="J24">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N24">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O24">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P24">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q24">
-        <v>10.61562461938532</v>
+        <v>11.690323205248</v>
       </c>
       <c r="R24">
-        <v>10.61562461938532</v>
+        <v>105.212908847232</v>
       </c>
       <c r="S24">
-        <v>0.004755596815900446</v>
+        <v>0.004520435275688696</v>
       </c>
       <c r="T24">
-        <v>0.004755596815900446</v>
+        <v>0.006607332389664195</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="H25">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="I25">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="J25">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N25">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O25">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P25">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q25">
-        <v>60.44917413657182</v>
+        <v>66.516623729816</v>
       </c>
       <c r="R25">
-        <v>60.44917413657182</v>
+        <v>399.0997423788961</v>
       </c>
       <c r="S25">
-        <v>0.02708007398102007</v>
+        <v>0.02572076811297993</v>
       </c>
       <c r="T25">
-        <v>0.02708007398102007</v>
+        <v>0.02506331859292655</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="H26">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="I26">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="J26">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N26">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O26">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P26">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q26">
-        <v>22.16046933621348</v>
+        <v>24.74904857085134</v>
       </c>
       <c r="R26">
-        <v>22.16046933621348</v>
+        <v>148.494291425108</v>
       </c>
       <c r="S26">
-        <v>0.009927466465016967</v>
+        <v>0.009570006768434419</v>
       </c>
       <c r="T26">
-        <v>0.009927466465016967</v>
+        <v>0.009325387465885685</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="H27">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="I27">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="J27">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N27">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P27">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q27">
-        <v>183.5209308256808</v>
+        <v>220.5466638087325</v>
       </c>
       <c r="R27">
-        <v>183.5209308256808</v>
+        <v>1984.919974278592</v>
       </c>
       <c r="S27">
-        <v>0.08221386734907256</v>
+        <v>0.08528138200395463</v>
       </c>
       <c r="T27">
-        <v>0.08221386734907256</v>
+        <v>0.1246522520918535</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="H28">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="I28">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="J28">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N28">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O28">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P28">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q28">
-        <v>1.994175274011162</v>
+        <v>2.731009469212</v>
       </c>
       <c r="R28">
-        <v>1.994175274011162</v>
+        <v>24.579085222908</v>
       </c>
       <c r="S28">
-        <v>0.0008933523860778724</v>
+        <v>0.001056031670478001</v>
       </c>
       <c r="T28">
-        <v>0.0008933523860778724</v>
+        <v>0.001543557607911429</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="H29">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="I29">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="J29">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N29">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O29">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P29">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q29">
-        <v>3.530263865551667</v>
+        <v>4.410427684500334</v>
       </c>
       <c r="R29">
-        <v>3.530263865551667</v>
+        <v>39.693849160503</v>
       </c>
       <c r="S29">
-        <v>0.001581490698874958</v>
+        <v>0.001705432136977977</v>
       </c>
       <c r="T29">
-        <v>0.001581490698874958</v>
+        <v>0.002492759283078565</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="H30">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="I30">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="J30">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N30">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O30">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P30">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q30">
-        <v>25.77849806330717</v>
+        <v>30.83106044981067</v>
       </c>
       <c r="R30">
-        <v>25.77849806330717</v>
+        <v>277.479544048296</v>
       </c>
       <c r="S30">
-        <v>0.01154827414344441</v>
+        <v>0.01192181009859925</v>
       </c>
       <c r="T30">
-        <v>0.01154827414344441</v>
+        <v>0.017425614394158</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="H31">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="I31">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="J31">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N31">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O31">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P31">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q31">
-        <v>146.7920140622271</v>
+        <v>175.4252650782689</v>
       </c>
       <c r="R31">
-        <v>146.7920140622271</v>
+        <v>1052.551590469613</v>
       </c>
       <c r="S31">
-        <v>0.06576001504416064</v>
+        <v>0.06783375810780454</v>
       </c>
       <c r="T31">
-        <v>0.06576001504416064</v>
+        <v>0.06609985686832764</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="H32">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="I32">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="J32">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N32">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O32">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P32">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q32">
-        <v>50.813304782435</v>
+        <v>57.772813625963</v>
       </c>
       <c r="R32">
-        <v>50.813304782435</v>
+        <v>231.091254503852</v>
       </c>
       <c r="S32">
-        <v>0.02276338878707629</v>
+        <v>0.02233969584120249</v>
       </c>
       <c r="T32">
-        <v>0.02276338878707629</v>
+        <v>0.0145124466910089</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="H33">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="I33">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="J33">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N33">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P33">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q33">
-        <v>420.8080997978939</v>
+        <v>514.8319648560747</v>
       </c>
       <c r="R33">
-        <v>420.8080997978939</v>
+        <v>3088.991789136448</v>
       </c>
       <c r="S33">
-        <v>0.1885139811603339</v>
+        <v>0.1990761533387521</v>
       </c>
       <c r="T33">
-        <v>0.1885139811603339</v>
+        <v>0.1939875603040602</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="H34">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="I34">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="J34">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N34">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O34">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P34">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q34">
-        <v>4.572585284659825</v>
+        <v>6.375117840341999</v>
       </c>
       <c r="R34">
-        <v>4.572585284659825</v>
+        <v>38.250707042052</v>
       </c>
       <c r="S34">
-        <v>0.002048430761243386</v>
+        <v>0.002465142072309622</v>
       </c>
       <c r="T34">
-        <v>0.002048430761243386</v>
+        <v>0.002402130483185055</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="H35">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="I35">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="J35">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N35">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O35">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P35">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q35">
-        <v>8.094791271841588</v>
+        <v>10.2954590718095</v>
       </c>
       <c r="R35">
-        <v>8.094791271841588</v>
+        <v>61.772754430857</v>
       </c>
       <c r="S35">
-        <v>0.00362631168470778</v>
+        <v>0.003981066695121332</v>
       </c>
       <c r="T35">
-        <v>0.00362631168470778</v>
+        <v>0.003879306499760479</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="H36">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="I36">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="J36">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N36">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O36">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P36">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q36">
-        <v>59.10933830195027</v>
+        <v>71.97032662320399</v>
       </c>
       <c r="R36">
-        <v>59.10933830195027</v>
+        <v>431.821959739224</v>
       </c>
       <c r="S36">
-        <v>0.02647985315017795</v>
+        <v>0.02782961579063262</v>
       </c>
       <c r="T36">
-        <v>0.02647985315017795</v>
+        <v>0.02711826193586231</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="H37">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="I37">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="J37">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N37">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O37">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P37">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q37">
-        <v>336.5897733033273</v>
+        <v>409.5030609212367</v>
       </c>
       <c r="R37">
-        <v>336.5897733033273</v>
+        <v>1638.012243684947</v>
       </c>
       <c r="S37">
-        <v>0.1507857814850504</v>
+        <v>0.1583473826677306</v>
       </c>
       <c r="T37">
-        <v>0.1507857814850504</v>
+        <v>0.1028665728468813</v>
       </c>
     </row>
   </sheetData>
